--- a/output2/【河洛話注音】金剛般若波羅蜜經009。一相無相分第九.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經009。一相無相分第九.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AFCE4F6-6099-4515-9E34-C2BAE4308D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DFE1A9D-65E7-4C5C-A0D3-277D25208F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="406">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1357,420 +1357,555 @@
   </si>
   <si>
     <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siong3</t>
-  </si>
-  <si>
-    <t>ㄙㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㆤˊ</t>
-  </si>
-  <si>
-    <t>u1</t>
-  </si>
-  <si>
-    <t>ㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ua5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄚˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>to5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>tserh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zerh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si6</t>
-  </si>
-  <si>
-    <t>ㄙㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liam7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ko2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆬ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㆤ˫</t>
-  </si>
-  <si>
-    <t>tsun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mia5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄇㄧㄚˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆡ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄠˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ji5</t>
-  </si>
-  <si>
-    <t>ㆡㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siek4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆩ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄤ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄚㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sur1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙ˙</t>
-  </si>
-  <si>
-    <t>phang1</t>
-  </si>
-  <si>
-    <t>ㄆㄤ˙</t>
-  </si>
-  <si>
-    <t>bi7</t>
-  </si>
-  <si>
-    <t>ㆠㄧ˪</t>
-  </si>
-  <si>
-    <t>tak4</t>
-  </si>
-  <si>
-    <t>ㄉㄚㆻ</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>sur1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ham5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㄥˋ</t>
-  </si>
-  <si>
-    <t>lai0</t>
-  </si>
-  <si>
-    <t>ㄌㄞ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sit8</t>
-  </si>
-  <si>
-    <t>ㄙㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄚ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>na2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄋㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>han3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>to6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄜˋ</t>
-  </si>
-  <si>
-    <t>u6</t>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-  </si>
-  <si>
-    <t>tsiah4</t>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tio0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㄜ˙</t>
-  </si>
-  <si>
-    <t>lang5</t>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-  </si>
-  <si>
-    <t>tsing3</t>
-  </si>
-  <si>
-    <t>ㄗㄧㄥ˫</t>
-  </si>
-  <si>
-    <t>tshenn1</t>
-  </si>
-  <si>
-    <t>ㄘㆥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siu7</t>
-  </si>
-  <si>
-    <t>ㄙㄧㄨ˪</t>
-  </si>
-  <si>
-    <t>tsia2</t>
-  </si>
-  <si>
-    <t>ㄗㄧㄚˋ</t>
-  </si>
-  <si>
-    <t>put8</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㆰ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄇㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㆲ˙</t>
-  </si>
-  <si>
-    <t>tsue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>li7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>beh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㆤㆷ</t>
-  </si>
-  <si>
-    <t>tsik4</t>
-  </si>
-  <si>
-    <t>ㄗㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄠ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5074,7 +5209,7 @@
         <v>294</v>
       </c>
       <c r="R28" s="88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="85" t="str">
@@ -5171,13 +5306,13 @@
       </c>
       <c r="O30" s="93"/>
       <c r="P30" s="93" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q30" s="93" t="s">
         <v>295</v>
       </c>
       <c r="R30" s="93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="85" t="str">
@@ -5240,7 +5375,7 @@
         <v>294</v>
       </c>
       <c r="M32" s="88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N32" s="88" t="s">
         <v>308</v>
@@ -5337,13 +5472,13 @@
         <v>307</v>
       </c>
       <c r="K34" s="93" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L34" s="93" t="s">
         <v>295</v>
       </c>
       <c r="M34" s="93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N34" s="93" t="s">
         <v>309</v>
@@ -5547,7 +5682,7 @@
         <v>294</v>
       </c>
       <c r="F40" s="88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G40" s="88" t="s">
         <v>324</v>
@@ -5556,26 +5691,26 @@
         <v>268</v>
       </c>
       <c r="I40" s="88" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J40" s="88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K40" s="88"/>
       <c r="L40" s="88" t="s">
         <v>332</v>
       </c>
       <c r="M40" s="88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N40" s="88" t="s">
         <v>272</v>
       </c>
       <c r="O40" s="88" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P40" s="88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q40" s="88"/>
       <c r="R40" s="88" t="s">
@@ -5642,13 +5777,13 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="93" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E42" s="93" t="s">
         <v>295</v>
       </c>
       <c r="F42" s="93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G42" s="93" t="s">
         <v>325</v>
@@ -5657,26 +5792,26 @@
         <v>269</v>
       </c>
       <c r="I42" s="93" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J42" s="93" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K42" s="93"/>
       <c r="L42" s="93" t="s">
         <v>333</v>
       </c>
       <c r="M42" s="93" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N42" s="93" t="s">
         <v>273</v>
       </c>
       <c r="O42" s="93" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P42" s="93" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q42" s="93"/>
       <c r="R42" s="93" t="s">
@@ -5719,7 +5854,7 @@
         <v>294</v>
       </c>
       <c r="G44" s="88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H44" s="88"/>
       <c r="I44" s="88"/>
@@ -5810,13 +5945,13 @@
         <v>325</v>
       </c>
       <c r="E46" s="93" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F46" s="93" t="s">
         <v>295</v>
       </c>
       <c r="G46" s="93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H46" s="93"/>
       <c r="I46" s="93"/>
@@ -5872,13 +6007,13 @@
       <c r="C48" s="52"/>
       <c r="D48" s="88"/>
       <c r="E48" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F48" s="88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G48" s="88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H48" s="88" t="s">
         <v>296</v>
@@ -5900,13 +6035,13 @@
         <v>306</v>
       </c>
       <c r="O48" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P48" s="88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q48" s="88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R48" s="88" t="s">
         <v>308</v>
@@ -5973,13 +6108,13 @@
       <c r="C50" s="52"/>
       <c r="D50" s="93"/>
       <c r="E50" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F50" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G50" s="93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H50" s="93" t="s">
         <v>297</v>
@@ -6001,13 +6136,13 @@
         <v>307</v>
       </c>
       <c r="O50" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P50" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q50" s="93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R50" s="93" t="s">
         <v>309</v>
@@ -6203,13 +6338,13 @@
       </c>
       <c r="G56" s="88"/>
       <c r="H56" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I56" s="88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J56" s="88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K56" s="88" t="s">
         <v>324</v>
@@ -6221,14 +6356,14 @@
         <v>310</v>
       </c>
       <c r="N56" s="88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O56" s="88"/>
       <c r="P56" s="88" t="s">
         <v>332</v>
       </c>
       <c r="Q56" s="88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R56" s="88" t="s">
         <v>272</v>
@@ -6304,13 +6439,13 @@
       </c>
       <c r="G58" s="93"/>
       <c r="H58" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I58" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J58" s="93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K58" s="93" t="s">
         <v>325</v>
@@ -6322,14 +6457,14 @@
         <v>311</v>
       </c>
       <c r="N58" s="93" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O58" s="93"/>
       <c r="P58" s="93" t="s">
         <v>333</v>
       </c>
       <c r="Q58" s="93" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="R58" s="93" t="s">
         <v>273</v>
@@ -6365,7 +6500,7 @@
         <v>310</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F60" s="88"/>
       <c r="G60" s="88" t="s">
@@ -6378,13 +6513,13 @@
         <v>324</v>
       </c>
       <c r="J60" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K60" s="88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L60" s="88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M60" s="88"/>
       <c r="N60" s="88"/>
@@ -6462,7 +6597,7 @@
         <v>311</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F62" s="93"/>
       <c r="G62" s="93" t="s">
@@ -6475,13 +6610,13 @@
         <v>325</v>
       </c>
       <c r="J62" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K62" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L62" s="93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M62" s="93"/>
       <c r="N62" s="93"/>
@@ -6537,13 +6672,13 @@
       </c>
       <c r="I64" s="88"/>
       <c r="J64" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K64" s="88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L64" s="88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M64" s="88" t="s">
         <v>296</v>
@@ -6636,13 +6771,13 @@
       </c>
       <c r="I66" s="93"/>
       <c r="J66" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K66" s="93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L66" s="93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M66" s="93" t="s">
         <v>297</v>
@@ -6691,16 +6826,16 @@
         <v>306</v>
       </c>
       <c r="E68" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F68" s="88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G68" s="88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H68" s="88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I68" s="88" t="s">
         <v>310</v>
@@ -6788,16 +6923,16 @@
         <v>307</v>
       </c>
       <c r="E70" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F70" s="93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G70" s="93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H70" s="93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I70" s="93" t="s">
         <v>311</v>
@@ -6870,13 +7005,13 @@
       </c>
       <c r="L72" s="88"/>
       <c r="M72" s="88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N72" s="88" t="s">
         <v>272</v>
       </c>
       <c r="O72" s="88" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P72" s="88" t="s">
         <v>346</v>
@@ -6885,7 +7020,7 @@
         <v>324</v>
       </c>
       <c r="R72" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="S72" s="53"/>
       <c r="V72" s="69"/>
@@ -6969,13 +7104,13 @@
       </c>
       <c r="L74" s="93"/>
       <c r="M74" s="93" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N74" s="93" t="s">
         <v>273</v>
       </c>
       <c r="O74" s="93" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P74" s="93" t="s">
         <v>347</v>
@@ -6984,7 +7119,7 @@
         <v>325</v>
       </c>
       <c r="R74" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S74" s="58"/>
       <c r="V74" s="69"/>
@@ -7014,10 +7149,10 @@
       <c r="B76" s="65"/>
       <c r="C76" s="52"/>
       <c r="D76" s="88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E76" s="88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F76" s="88"/>
       <c r="G76" s="88" t="s">
@@ -7028,16 +7163,16 @@
       </c>
       <c r="I76" s="88"/>
       <c r="J76" s="88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K76" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L76" s="88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M76" s="88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N76" s="88" t="s">
         <v>298</v>
@@ -7113,10 +7248,10 @@
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
       <c r="D78" s="93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E78" s="93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F78" s="93"/>
       <c r="G78" s="93" t="s">
@@ -7127,16 +7262,16 @@
       </c>
       <c r="I78" s="93"/>
       <c r="J78" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K78" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L78" s="93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M78" s="93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N78" s="93" t="s">
         <v>299</v>
@@ -7182,40 +7317,40 @@
         <v>306</v>
       </c>
       <c r="E80" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F80" s="88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G80" s="88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H80" s="88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I80" s="88"/>
       <c r="J80" s="88" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K80" s="88" t="s">
         <v>326</v>
       </c>
       <c r="L80" s="88" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M80" s="88" t="s">
         <v>304</v>
       </c>
       <c r="N80" s="88"/>
       <c r="O80" s="88" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P80" s="88"/>
       <c r="Q80" s="88" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R80" s="88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S80" s="53"/>
       <c r="V80" s="69"/>
@@ -7281,40 +7416,40 @@
         <v>307</v>
       </c>
       <c r="E82" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F82" s="93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G82" s="93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H82" s="93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I82" s="93"/>
       <c r="J82" s="93" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K82" s="93" t="s">
         <v>327</v>
       </c>
       <c r="L82" s="93" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M82" s="93" t="s">
         <v>305</v>
       </c>
       <c r="N82" s="93"/>
       <c r="O82" s="93" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P82" s="93"/>
       <c r="Q82" s="93" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R82" s="93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="S82" s="58"/>
       <c r="V82" s="69"/>
@@ -7345,10 +7480,10 @@
       <c r="C84" s="52"/>
       <c r="D84" s="88"/>
       <c r="E84" s="88" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F84" s="88" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G84" s="88"/>
       <c r="H84" s="88" t="s">
@@ -7359,10 +7494,10 @@
       </c>
       <c r="J84" s="88"/>
       <c r="K84" s="88" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L84" s="88" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M84" s="88" t="s">
         <v>304</v>
@@ -7374,13 +7509,13 @@
         <v>272</v>
       </c>
       <c r="P84" s="88" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q84" s="88" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R84" s="88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S84" s="53"/>
       <c r="V84" s="69"/>
@@ -7444,10 +7579,10 @@
       <c r="C86" s="52"/>
       <c r="D86" s="93"/>
       <c r="E86" s="93" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F86" s="93" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G86" s="93"/>
       <c r="H86" s="93" t="s">
@@ -7458,10 +7593,10 @@
       </c>
       <c r="J86" s="93"/>
       <c r="K86" s="93" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L86" s="93" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M86" s="93" t="s">
         <v>305</v>
@@ -7473,13 +7608,13 @@
         <v>273</v>
       </c>
       <c r="P86" s="93" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q86" s="93" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R86" s="93" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S86" s="58"/>
       <c r="V86" s="69"/>
@@ -7510,13 +7645,13 @@
       <c r="C88" s="52"/>
       <c r="D88" s="88"/>
       <c r="E88" s="88" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F88" s="88" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G88" s="88" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H88" s="88" t="s">
         <v>326</v>
@@ -7538,16 +7673,16 @@
         <v>268</v>
       </c>
       <c r="O88" s="88" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P88" s="88" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q88" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R88" s="88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S88" s="53"/>
       <c r="V88" s="69"/>
@@ -7611,13 +7746,13 @@
       <c r="C90" s="52"/>
       <c r="D90" s="93"/>
       <c r="E90" s="93" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F90" s="93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G90" s="93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H90" s="93" t="s">
         <v>327</v>
@@ -7639,16 +7774,16 @@
         <v>269</v>
       </c>
       <c r="O90" s="93" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P90" s="93" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q90" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="R90" s="93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S90" s="58"/>
       <c r="V90" s="69"/>
@@ -7678,7 +7813,7 @@
       <c r="B92" s="65"/>
       <c r="C92" s="52"/>
       <c r="D92" s="88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E92" s="88"/>
       <c r="F92" s="88"/>
@@ -7729,7 +7864,7 @@
       <c r="B94" s="67"/>
       <c r="C94" s="52"/>
       <c r="D94" s="93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E94" s="93"/>
       <c r="F94" s="93"/>
@@ -7890,13 +8025,13 @@
         <v>300</v>
       </c>
       <c r="P100" s="88" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q100" s="88" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="R100" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="S100" s="53"/>
       <c r="V100" s="69"/>
@@ -7989,13 +8124,13 @@
         <v>301</v>
       </c>
       <c r="P102" s="93" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q102" s="93" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R102" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S102" s="58"/>
       <c r="V102" s="69"/>
@@ -8025,10 +8160,10 @@
       <c r="B104" s="65"/>
       <c r="C104" s="52"/>
       <c r="D104" s="88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E104" s="88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F104" s="88"/>
       <c r="G104" s="88"/>
@@ -8082,10 +8217,10 @@
       <c r="B106" s="67"/>
       <c r="C106" s="52"/>
       <c r="D106" s="93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E106" s="93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F106" s="93"/>
       <c r="G106" s="93"/>
@@ -8225,7 +8360,7 @@
         <v>304</v>
       </c>
       <c r="H112" s="88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I112" s="88" t="s">
         <v>298</v>
@@ -8244,16 +8379,16 @@
         <v>306</v>
       </c>
       <c r="O112" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P112" s="88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q112" s="88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R112" s="88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S112" s="53"/>
       <c r="V112" s="69"/>
@@ -8326,7 +8461,7 @@
         <v>305</v>
       </c>
       <c r="H114" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I114" s="93" t="s">
         <v>299</v>
@@ -8345,16 +8480,16 @@
         <v>307</v>
       </c>
       <c r="O114" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P114" s="93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q114" s="93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R114" s="93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S114" s="58"/>
       <c r="V114" s="69"/>
@@ -8391,13 +8526,13 @@
         <v>318</v>
       </c>
       <c r="G116" s="88" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="H116" s="88" t="s">
         <v>310</v>
       </c>
       <c r="I116" s="88" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J116" s="88" t="s">
         <v>280</v>
@@ -8412,19 +8547,19 @@
         <v>300</v>
       </c>
       <c r="N116" s="88" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O116" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P116" s="88" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q116" s="88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R116" s="88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S116" s="53"/>
       <c r="V116" s="69"/>
@@ -8494,13 +8629,13 @@
         <v>319</v>
       </c>
       <c r="G118" s="93" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="H118" s="93" t="s">
         <v>311</v>
       </c>
       <c r="I118" s="93" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J118" s="93" t="s">
         <v>281</v>
@@ -8515,19 +8650,19 @@
         <v>301</v>
       </c>
       <c r="N118" s="93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O118" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P118" s="93" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q118" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R118" s="93" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S118" s="58"/>
       <c r="V118" s="69"/>
@@ -8557,7 +8692,7 @@
       <c r="B120" s="65"/>
       <c r="C120" s="52"/>
       <c r="D120" s="88" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E120" s="88"/>
       <c r="F120" s="88" t="s">
@@ -8573,7 +8708,7 @@
         <v>284</v>
       </c>
       <c r="J120" s="88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K120" s="88" t="s">
         <v>272</v>
@@ -8582,7 +8717,7 @@
         <v>334</v>
       </c>
       <c r="M120" s="88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N120" s="88"/>
       <c r="O120" s="88" t="s">
@@ -8658,7 +8793,7 @@
       <c r="B122" s="67"/>
       <c r="C122" s="52"/>
       <c r="D122" s="93" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E122" s="93"/>
       <c r="F122" s="93" t="s">
@@ -8674,7 +8809,7 @@
         <v>285</v>
       </c>
       <c r="J122" s="93" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K122" s="93" t="s">
         <v>273</v>
@@ -8683,7 +8818,7 @@
         <v>335</v>
       </c>
       <c r="M122" s="93" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N122" s="93"/>
       <c r="O122" s="93" t="s">
@@ -8733,19 +8868,19 @@
         <v>300</v>
       </c>
       <c r="G124" s="88" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H124" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I124" s="88" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J124" s="88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K124" s="88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L124" s="88"/>
       <c r="M124" s="88"/>
@@ -8812,19 +8947,19 @@
         <v>301</v>
       </c>
       <c r="G126" s="93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H126" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I126" s="93" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J126" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K126" s="93" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L126" s="93"/>
       <c r="M126" s="93"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經009。一相無相分第九.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經009。一相無相分第九.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DFE1A9D-65E7-4C5C-A0D3-277D25208F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AB4D19-8C44-4218-956A-42E1E482C06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="417">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1260,651 +1260,698 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>陀</t>
+  </si>
+  <si>
+    <t>洹</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>作</t>
+  </si>
+  <si>
+    <t>念</t>
+  </si>
+  <si>
+    <t>果</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>香</t>
+  </si>
+  <si>
+    <t>味</t>
+  </si>
+  <si>
+    <t>觸</t>
+  </si>
+  <si>
+    <t>斯</t>
+  </si>
+  <si>
+    <t>含</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>那</t>
+  </si>
+  <si>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>著</t>
+  </si>
+  <si>
+    <t>最</t>
+  </si>
+  <si>
+    <t>離</t>
+  </si>
+  <si>
+    <t>欲</t>
+  </si>
+  <si>
+    <t>『</t>
+  </si>
+  <si>
+    <t>』</t>
+  </si>
+  <si>
+    <t>則</t>
+  </si>
+  <si>
+    <t>樂</t>
+  </si>
+  <si>
+    <t>蘭</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liam7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ham5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆰ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>九</t>
-  </si>
-  <si>
-    <t>陀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>洹</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>作</t>
-  </si>
-  <si>
-    <t>念</t>
-  </si>
-  <si>
-    <t>果</t>
-  </si>
-  <si>
-    <t>也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>聲</t>
-  </si>
-  <si>
-    <t>香</t>
-  </si>
-  <si>
-    <t>味</t>
-  </si>
-  <si>
-    <t>觸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>往</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>那</t>
-  </si>
-  <si>
-    <t>漢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道</t>
-  </si>
-  <si>
-    <t>著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>諍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>昧</t>
-  </si>
-  <si>
-    <t>最</t>
-  </si>
-  <si>
-    <t>離</t>
-  </si>
-  <si>
-    <t>欲</t>
-  </si>
-  <si>
-    <t>『</t>
-  </si>
-  <si>
-    <t>』</t>
-  </si>
-  <si>
-    <t>則</t>
-  </si>
-  <si>
-    <t>樂</t>
-  </si>
-  <si>
-    <t>蘭</t>
-  </si>
-  <si>
-    <t>行</t>
-  </si>
-  <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ling5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zerh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liam7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㆰ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆬ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mia5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄧㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡ一ㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄠˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆩ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄤ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sur1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ham5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆰˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>han3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tio0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sam3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆰ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mue7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄨㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㆤㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄠ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan5</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄢˊ</t>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㄨㄧ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4037,7 +4084,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4137,8 +4184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A87" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4248,25 +4295,25 @@
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="88" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F4" s="88" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H4" s="88" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I4" s="88" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="J4" s="88" t="s">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
@@ -4301,8 +4348,8 @@
       <c r="I5" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="94" t="s">
-        <v>236</v>
+      <c r="J5" s="101" t="s">
+        <v>388</v>
       </c>
       <c r="K5" s="94"/>
       <c r="L5" s="94"/>
@@ -4319,25 +4366,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="93" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E6" s="93" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="G6" s="93" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="H6" s="93" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>279</v>
+        <v>401</v>
       </c>
       <c r="K6" s="93"/>
       <c r="L6" s="93"/>
@@ -4376,40 +4423,42 @@
       <c r="C8" s="52"/>
       <c r="D8" s="88"/>
       <c r="E8" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="H8" s="88"/>
       <c r="I8" s="88" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="J8" s="88" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="K8" s="88" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="L8" s="88" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="M8" s="88"/>
       <c r="N8" s="88" t="s">
+        <v>268</v>
+      </c>
+      <c r="O8" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="P8" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q8" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="O8" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88" t="s">
-        <v>296</v>
-      </c>
       <c r="R8" s="88" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="105"/>
@@ -4454,16 +4503,16 @@
         <v>184</v>
       </c>
       <c r="O9" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P9" s="101" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q9" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="Q9" s="94" t="s">
+      <c r="R9" s="94" t="s">
         <v>239</v>
-      </c>
-      <c r="R9" s="94" t="s">
-        <v>240</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
@@ -4474,40 +4523,42 @@
       <c r="C10" s="52"/>
       <c r="D10" s="93"/>
       <c r="E10" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="J10" s="93" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="K10" s="93" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="L10" s="93" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="M10" s="93"/>
       <c r="N10" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="O10" s="93" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" s="93" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q10" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="O10" s="93" t="s">
-        <v>295</v>
-      </c>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93" t="s">
-        <v>297</v>
-      </c>
       <c r="R10" s="93" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="105"/>
@@ -4524,7 +4575,9 @@
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
+      <c r="M11" s="78" t="s">
+        <v>387</v>
+      </c>
       <c r="N11" s="81"/>
       <c r="O11" s="81"/>
       <c r="P11" s="78"/>
@@ -4537,41 +4590,43 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="F12" s="88"/>
       <c r="G12" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="H12" s="88" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="I12" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="J12" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="K12" s="88"/>
+        <v>278</v>
+      </c>
+      <c r="K12" s="88" t="s">
+        <v>402</v>
+      </c>
       <c r="L12" s="88" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="M12" s="88" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="N12" s="88"/>
       <c r="O12" s="88"/>
       <c r="P12" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Q12" s="88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="R12" s="88" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="105"/>
@@ -4586,7 +4641,7 @@
         <v>171</v>
       </c>
       <c r="E13" s="94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13" s="94" t="s">
         <v>167</v>
@@ -4601,13 +4656,13 @@
         <v>184</v>
       </c>
       <c r="J13" s="94" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="94" t="s">
-        <v>238</v>
-      </c>
       <c r="L13" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M13" s="94" t="s">
         <v>227</v>
@@ -4634,41 +4689,43 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="J14" s="93" t="s">
-        <v>295</v>
-      </c>
-      <c r="K14" s="93"/>
+        <v>279</v>
+      </c>
+      <c r="K14" s="93" t="s">
+        <v>403</v>
+      </c>
       <c r="L14" s="93" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="M14" s="93" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="N14" s="93"/>
       <c r="O14" s="93"/>
       <c r="P14" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="93" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="R14" s="93" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="105"/>
@@ -4698,39 +4755,39 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="88" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="E16" s="88"/>
       <c r="F16" s="88"/>
       <c r="G16" s="88" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="H16" s="88" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="I16" s="88"/>
       <c r="J16" s="88" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="K16" s="88" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="L16" s="88"/>
       <c r="M16" s="88" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="N16" s="88" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="O16" s="88" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="P16" s="88"/>
       <c r="Q16" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="R16" s="88" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="105"/>
@@ -4754,7 +4811,7 @@
         <v>227</v>
       </c>
       <c r="H17" s="94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I17" s="94" t="s">
         <v>173</v>
@@ -4784,7 +4841,7 @@
         <v>184</v>
       </c>
       <c r="R17" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S17" s="54"/>
       <c r="V17" s="105"/>
@@ -4793,39 +4850,39 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="93" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E18" s="93"/>
       <c r="F18" s="93"/>
       <c r="G18" s="93" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="H18" s="93" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="I18" s="93"/>
       <c r="J18" s="93" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="K18" s="93" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="L18" s="93"/>
       <c r="M18" s="93" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="N18" s="93" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="O18" s="93" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="P18" s="93"/>
       <c r="Q18" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="R18" s="93" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="105"/>
@@ -4854,41 +4911,43 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
-      <c r="D20" s="88"/>
+      <c r="D20" s="88" t="s">
+        <v>402</v>
+      </c>
       <c r="E20" s="88" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="F20" s="88" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="G20" s="88" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="I20" s="88"/>
       <c r="J20" s="88" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="K20" s="88" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="L20" s="88" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="M20" s="88" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="N20" s="88"/>
       <c r="O20" s="88" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="P20" s="88" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="88" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="R20" s="88"/>
       <c r="S20" s="53"/>
@@ -4901,10 +4960,10 @@
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="94" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="94" t="s">
-        <v>244</v>
+        <v>237</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>390</v>
       </c>
       <c r="F21" s="94" t="s">
         <v>226</v>
@@ -4912,8 +4971,8 @@
       <c r="G21" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="H21" s="94" t="s">
-        <v>245</v>
+      <c r="H21" s="101" t="s">
+        <v>391</v>
       </c>
       <c r="I21" s="94" t="s">
         <v>167</v>
@@ -4951,41 +5010,43 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="93"/>
+      <c r="D22" s="93" t="s">
+        <v>403</v>
+      </c>
       <c r="E22" s="93" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="F22" s="93" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="G22" s="93" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="I22" s="93"/>
       <c r="J22" s="93" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="K22" s="93" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="L22" s="93" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="M22" s="93" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="N22" s="93"/>
       <c r="O22" s="93" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="P22" s="93" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="Q22" s="93" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="R22" s="93"/>
       <c r="S22" s="58"/>
@@ -5016,38 +5077,40 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="88" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E24" s="88"/>
       <c r="F24" s="88" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="G24" s="88"/>
       <c r="H24" s="88" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="I24" s="88"/>
       <c r="J24" s="88" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="K24" s="88"/>
       <c r="L24" s="88" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="M24" s="88"/>
       <c r="N24" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="O24" s="88" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="P24" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Q24" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="R24" s="88"/>
+        <v>278</v>
+      </c>
+      <c r="R24" s="88" t="s">
+        <v>402</v>
+      </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
     </row>
@@ -5057,26 +5120,26 @@
         <v>6</v>
       </c>
       <c r="C25" s="52"/>
-      <c r="D25" s="94" t="s">
-        <v>246</v>
+      <c r="D25" s="101" t="s">
+        <v>392</v>
       </c>
       <c r="E25" s="94" t="s">
         <v>211</v>
       </c>
       <c r="F25" s="94" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G25" s="94" t="s">
         <v>211</v>
       </c>
       <c r="H25" s="94" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I25" s="94" t="s">
         <v>211</v>
       </c>
       <c r="J25" s="94" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K25" s="94" t="s">
         <v>211</v>
@@ -5091,16 +5154,16 @@
         <v>171</v>
       </c>
       <c r="O25" s="94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P25" s="94" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="94" t="s">
+        <v>236</v>
+      </c>
+      <c r="R25" s="94" t="s">
         <v>237</v>
-      </c>
-      <c r="R25" s="94" t="s">
-        <v>238</v>
       </c>
       <c r="S25" s="54"/>
       <c r="V25" s="69"/>
@@ -5109,38 +5172,40 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="93" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="E26" s="93"/>
       <c r="F26" s="93" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G26" s="93"/>
       <c r="H26" s="93" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="I26" s="93"/>
       <c r="J26" s="93" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="K26" s="93"/>
       <c r="L26" s="93" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="M26" s="93"/>
       <c r="N26" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="O26" s="93" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="P26" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="93" t="s">
-        <v>295</v>
-      </c>
-      <c r="R26" s="93"/>
+        <v>279</v>
+      </c>
+      <c r="R26" s="93" t="s">
+        <v>403</v>
+      </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
         <f xml:space="preserve"> MID($N$26,3,1)</f>
@@ -5180,36 +5245,36 @@
       <c r="E28" s="88"/>
       <c r="F28" s="88"/>
       <c r="G28" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="H28" s="88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="I28" s="88" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="J28" s="88"/>
       <c r="K28" s="88" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="L28" s="88" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M28" s="88" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="N28" s="88" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="O28" s="88"/>
       <c r="P28" s="88" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="Q28" s="88" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="R28" s="88" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="85" t="str">
@@ -5260,14 +5325,14 @@
       <c r="O29" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="P29" s="94" t="s">
-        <v>250</v>
+      <c r="P29" s="101" t="s">
+        <v>393</v>
       </c>
       <c r="Q29" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R29" s="103" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="S29" s="54"/>
       <c r="U29" s="85" t="str">
@@ -5283,36 +5348,36 @@
       <c r="E30" s="93"/>
       <c r="F30" s="93"/>
       <c r="G30" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="H30" s="93" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I30" s="93" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="J30" s="93"/>
       <c r="K30" s="93" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="L30" s="93" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="M30" s="93" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="N30" s="93" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="O30" s="93"/>
       <c r="P30" s="93" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q30" s="93" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="R30" s="93" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="85" t="str">
@@ -5335,7 +5400,9 @@
       <c r="L31" s="78"/>
       <c r="M31" s="78"/>
       <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
+      <c r="O31" s="78" t="s">
+        <v>387</v>
+      </c>
       <c r="P31" s="78"/>
       <c r="Q31" s="78"/>
       <c r="R31" s="78"/>
@@ -5350,43 +5417,43 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="88" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E32" s="88" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="F32" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G32" s="88" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="H32" s="88"/>
       <c r="I32" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="J32" s="88" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="K32" s="88" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="L32" s="88" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="M32" s="88" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="N32" s="88" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="O32" s="88" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="P32" s="88"/>
       <c r="Q32" s="88"/>
       <c r="R32" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="85" t="str">
@@ -5402,16 +5469,16 @@
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="94" t="s">
         <v>239</v>
-      </c>
-      <c r="E33" s="94" t="s">
-        <v>240</v>
       </c>
       <c r="F33" s="94" t="s">
         <v>171</v>
       </c>
       <c r="G33" s="94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H33" s="94" t="s">
         <v>167</v>
@@ -5423,16 +5490,16 @@
         <v>200</v>
       </c>
       <c r="K33" s="94" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L33" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M33" s="103" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N33" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O33" s="94" t="s">
         <v>227</v>
@@ -5453,43 +5520,43 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="93" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E34" s="93" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F34" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="G34" s="93" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="H34" s="93"/>
       <c r="I34" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="J34" s="93" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="K34" s="93" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L34" s="93" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="M34" s="93" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="N34" s="93" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="O34" s="93" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="P34" s="93"/>
       <c r="Q34" s="93"/>
       <c r="R34" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5519,38 +5586,38 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E36" s="88" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F36" s="88" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="G36" s="88"/>
       <c r="H36" s="88"/>
       <c r="I36" s="88" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J36" s="88" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="K36" s="88"/>
       <c r="L36" s="88" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M36" s="88" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N36" s="88"/>
       <c r="O36" s="88" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="P36" s="88" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="Q36" s="88" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="R36" s="88"/>
       <c r="S36" s="53"/>
@@ -5581,7 +5648,7 @@
         <v>227</v>
       </c>
       <c r="J37" s="94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K37" s="94" t="s">
         <v>173</v>
@@ -5614,38 +5681,38 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="93" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E38" s="93" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F38" s="93" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="G38" s="93"/>
       <c r="H38" s="93"/>
       <c r="I38" s="93" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="J38" s="93" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="K38" s="93"/>
       <c r="L38" s="93" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M38" s="93" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="N38" s="93"/>
       <c r="O38" s="93" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="P38" s="93" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="Q38" s="93" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="R38" s="93"/>
       <c r="S38" s="58"/>
@@ -5676,45 +5743,45 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="88" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="E40" s="88" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F40" s="88" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="G40" s="88" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="H40" s="88" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I40" s="88" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="J40" s="88" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="K40" s="88"/>
       <c r="L40" s="88" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="M40" s="88" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="N40" s="88" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="O40" s="88" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="P40" s="88" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="Q40" s="88"/>
       <c r="R40" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5726,22 +5793,22 @@
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="94" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E41" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F41" s="103" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G41" s="94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H41" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="I41" s="94" t="s">
-        <v>252</v>
+      <c r="I41" s="101" t="s">
+        <v>395</v>
       </c>
       <c r="J41" s="94" t="s">
         <v>230</v>
@@ -5759,7 +5826,7 @@
         <v>214</v>
       </c>
       <c r="O41" s="94" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P41" s="94" t="s">
         <v>230</v>
@@ -5777,45 +5844,45 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="93" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E42" s="93" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F42" s="93" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="G42" s="93" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="H42" s="93" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I42" s="93" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="J42" s="93" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="K42" s="93"/>
       <c r="L42" s="93" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="M42" s="93" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="N42" s="93" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="O42" s="93" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="P42" s="93" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="Q42" s="93"/>
       <c r="R42" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5845,41 +5912,41 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="88" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="E44" s="88" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="F44" s="88" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G44" s="88" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="H44" s="88"/>
       <c r="I44" s="88"/>
       <c r="J44" s="88"/>
       <c r="K44" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L44" s="88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="M44" s="88" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="N44" s="88"/>
       <c r="O44" s="88" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="P44" s="88" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="Q44" s="88" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="R44" s="88" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5891,16 +5958,16 @@
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E45" s="94" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F45" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G45" s="103" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H45" s="94" t="s">
         <v>173</v>
@@ -5942,41 +6009,41 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="93" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="E46" s="93" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F46" s="93" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="G46" s="93" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="H46" s="93"/>
       <c r="I46" s="93"/>
       <c r="J46" s="93"/>
       <c r="K46" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="L46" s="93" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="M46" s="93" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="N46" s="93"/>
       <c r="O46" s="93" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="P46" s="93" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="Q46" s="93" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="R46" s="93" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -6007,44 +6074,44 @@
       <c r="C48" s="52"/>
       <c r="D48" s="88"/>
       <c r="E48" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="F48" s="88" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="G48" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="H48" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="I48" s="88" t="s">
         <v>350</v>
       </c>
-      <c r="H48" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="I48" s="88" t="s">
-        <v>298</v>
-      </c>
       <c r="J48" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="K48" s="88" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="L48" s="88"/>
       <c r="M48" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="N48" s="88" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="O48" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="P48" s="88" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="Q48" s="88" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="R48" s="88" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -6061,23 +6128,23 @@
       <c r="E49" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="F49" s="94" t="s">
-        <v>253</v>
+      <c r="F49" s="101" t="s">
+        <v>396</v>
       </c>
       <c r="G49" s="103" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H49" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" s="94" t="s">
         <v>239</v>
-      </c>
-      <c r="I49" s="94" t="s">
-        <v>240</v>
       </c>
       <c r="J49" s="94" t="s">
         <v>171</v>
       </c>
       <c r="K49" s="94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L49" s="94" t="s">
         <v>167</v>
@@ -6092,13 +6159,13 @@
         <v>233</v>
       </c>
       <c r="P49" s="94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q49" s="94" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="R49" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S49" s="54"/>
       <c r="V49" s="69"/>
@@ -6108,44 +6175,44 @@
       <c r="C50" s="52"/>
       <c r="D50" s="93"/>
       <c r="E50" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F50" s="93" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="G50" s="93" t="s">
+        <v>310</v>
+      </c>
+      <c r="H50" s="93" t="s">
+        <v>281</v>
+      </c>
+      <c r="I50" s="93" t="s">
         <v>351</v>
       </c>
-      <c r="H50" s="93" t="s">
-        <v>297</v>
-      </c>
-      <c r="I50" s="93" t="s">
-        <v>299</v>
-      </c>
       <c r="J50" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="K50" s="93" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="L50" s="93"/>
       <c r="M50" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="N50" s="93" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="O50" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P50" s="93" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="Q50" s="93" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="R50" s="93" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -6153,7 +6220,9 @@
     <row r="51" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="74"/>
       <c r="C51" s="83"/>
-      <c r="D51" s="78"/>
+      <c r="D51" s="78" t="s">
+        <v>387</v>
+      </c>
       <c r="E51" s="78"/>
       <c r="F51" s="78"/>
       <c r="G51" s="78"/>
@@ -6175,36 +6244,36 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="88" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="E52" s="88"/>
       <c r="F52" s="88"/>
       <c r="G52" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="I52" s="88" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="J52" s="88" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="K52" s="88"/>
       <c r="L52" s="88"/>
       <c r="M52" s="88" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="N52" s="88" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="O52" s="88"/>
       <c r="P52" s="88" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="Q52" s="88" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="R52" s="88"/>
       <c r="S52" s="53"/>
@@ -6247,7 +6316,7 @@
         <v>227</v>
       </c>
       <c r="N53" s="94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O53" s="94" t="s">
         <v>173</v>
@@ -6268,36 +6337,36 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="93" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="E54" s="93"/>
       <c r="F54" s="93"/>
       <c r="G54" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="H54" s="93" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I54" s="93" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="J54" s="93" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="K54" s="93"/>
       <c r="L54" s="93"/>
       <c r="M54" s="93" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="N54" s="93" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="O54" s="93"/>
       <c r="P54" s="93" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="Q54" s="93" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="R54" s="93"/>
       <c r="S54" s="58"/>
@@ -6328,45 +6397,45 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="88" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="E56" s="88" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="F56" s="88" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="G56" s="88"/>
       <c r="H56" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="I56" s="88" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="J56" s="88" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="K56" s="88" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="L56" s="88" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="M56" s="88" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="N56" s="88" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="O56" s="88"/>
       <c r="P56" s="88" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="Q56" s="88" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="R56" s="88" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="S56" s="53"/>
       <c r="V56" s="69"/>
@@ -6393,13 +6462,13 @@
         <v>233</v>
       </c>
       <c r="I57" s="94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J57" s="103" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K57" s="94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L57" s="94" t="s">
         <v>226</v>
@@ -6429,45 +6498,45 @@
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
       <c r="D58" s="93" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="E58" s="93" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="F58" s="93" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="G58" s="93"/>
       <c r="H58" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I58" s="93" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="J58" s="93" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="K58" s="93" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="L58" s="93" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="M58" s="93" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="N58" s="93" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="O58" s="93"/>
       <c r="P58" s="93" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="Q58" s="93" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="R58" s="93" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="S58" s="58"/>
       <c r="V58" s="69"/>
@@ -6497,41 +6566,41 @@
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
       <c r="D60" s="88" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="F60" s="88"/>
       <c r="G60" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="H60" s="88" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="I60" s="88" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="J60" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="K60" s="88" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="L60" s="88" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="M60" s="88"/>
       <c r="N60" s="88"/>
       <c r="O60" s="88"/>
       <c r="P60" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Q60" s="88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="R60" s="88" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
@@ -6558,16 +6627,16 @@
         <v>195</v>
       </c>
       <c r="I61" s="94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J61" s="94" t="s">
         <v>233</v>
       </c>
       <c r="K61" s="94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L61" s="94" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M61" s="94" t="s">
         <v>173</v>
@@ -6594,41 +6663,41 @@
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="93" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="F62" s="93"/>
       <c r="G62" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="H62" s="93" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="I62" s="93" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="J62" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K62" s="93" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="L62" s="93" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="M62" s="93"/>
       <c r="N62" s="93"/>
       <c r="O62" s="93"/>
       <c r="P62" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="Q62" s="93" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="R62" s="93" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
@@ -6659,42 +6728,42 @@
       <c r="C64" s="52"/>
       <c r="D64" s="88"/>
       <c r="E64" s="88" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F64" s="88" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G64" s="88" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H64" s="88" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="I64" s="88"/>
       <c r="J64" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="K64" s="88" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="L64" s="88" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="M64" s="88" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="N64" s="88" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="O64" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="P64" s="88" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="Q64" s="88"/>
       <c r="R64" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="S64" s="53"/>
       <c r="V64" s="69"/>
@@ -6730,19 +6799,19 @@
         <v>234</v>
       </c>
       <c r="L65" s="94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M65" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="N65" s="94" t="s">
         <v>239</v>
-      </c>
-      <c r="N65" s="94" t="s">
-        <v>240</v>
       </c>
       <c r="O65" s="94" t="s">
         <v>171</v>
       </c>
       <c r="P65" s="94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q65" s="94" t="s">
         <v>167</v>
@@ -6758,42 +6827,42 @@
       <c r="C66" s="52"/>
       <c r="D66" s="93"/>
       <c r="E66" s="93" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F66" s="93" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="G66" s="93" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H66" s="93" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="I66" s="93"/>
       <c r="J66" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K66" s="93" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="L66" s="93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M66" s="93" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="N66" s="93" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="O66" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="P66" s="93" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="Q66" s="93"/>
       <c r="R66" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="S66" s="58"/>
       <c r="V66" s="69"/>
@@ -6806,7 +6875,9 @@
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
       <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
+      <c r="I67" s="78" t="s">
+        <v>387</v>
+      </c>
       <c r="J67" s="78"/>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
@@ -6823,41 +6894,41 @@
       <c r="B68" s="65"/>
       <c r="C68" s="52"/>
       <c r="D68" s="88" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E68" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="F68" s="88" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="G68" s="88" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="H68" s="88" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="I68" s="88" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="J68" s="88"/>
       <c r="K68" s="88"/>
       <c r="L68" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="M68" s="88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="N68" s="88" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="O68" s="88" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="P68" s="88"/>
       <c r="Q68" s="88"/>
       <c r="R68" s="88" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="S68" s="53"/>
       <c r="V68" s="69"/>
@@ -6878,10 +6949,10 @@
         <v>234</v>
       </c>
       <c r="G69" s="94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H69" s="94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I69" s="94" t="s">
         <v>227</v>
@@ -6920,41 +6991,41 @@
       <c r="B70" s="67"/>
       <c r="C70" s="52"/>
       <c r="D70" s="93" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="E70" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F70" s="93" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="G70" s="93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H70" s="93" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="I70" s="93" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="J70" s="93"/>
       <c r="K70" s="93"/>
       <c r="L70" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="M70" s="93" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="N70" s="93" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="O70" s="93" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="P70" s="93"/>
       <c r="Q70" s="93"/>
       <c r="R70" s="93" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="S70" s="58"/>
       <c r="V70" s="69"/>
@@ -6984,43 +7055,43 @@
       <c r="B72" s="65"/>
       <c r="C72" s="52"/>
       <c r="D72" s="88" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E72" s="88"/>
       <c r="F72" s="88" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G72" s="88" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="H72" s="88"/>
       <c r="I72" s="88" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="J72" s="88" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="K72" s="88" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="L72" s="88"/>
       <c r="M72" s="88" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="N72" s="88" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="O72" s="88" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="P72" s="88" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="Q72" s="88" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="R72" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="S72" s="53"/>
       <c r="V72" s="69"/>
@@ -7032,7 +7103,7 @@
       </c>
       <c r="C73" s="52"/>
       <c r="D73" s="94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E73" s="94" t="s">
         <v>173</v>
@@ -7071,7 +7142,7 @@
         <v>221</v>
       </c>
       <c r="Q73" s="94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R73" s="94" t="s">
         <v>233</v>
@@ -7083,43 +7154,43 @@
       <c r="B74" s="67"/>
       <c r="C74" s="52"/>
       <c r="D74" s="93" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="E74" s="93"/>
       <c r="F74" s="93" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="G74" s="93" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="H74" s="93"/>
       <c r="I74" s="93" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="J74" s="93" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="K74" s="93" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L74" s="93"/>
       <c r="M74" s="93" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="N74" s="93" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="O74" s="93" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="P74" s="93" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="Q74" s="93" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="R74" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="S74" s="58"/>
       <c r="V74" s="69"/>
@@ -7149,43 +7220,43 @@
       <c r="B76" s="65"/>
       <c r="C76" s="52"/>
       <c r="D76" s="88" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="E76" s="88" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="F76" s="88"/>
       <c r="G76" s="88" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H76" s="88" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="I76" s="88"/>
       <c r="J76" s="88" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="K76" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="L76" s="88" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="M76" s="88" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="N76" s="88" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="O76" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="P76" s="88" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="Q76" s="88"/>
       <c r="R76" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="S76" s="53"/>
       <c r="V76" s="69"/>
@@ -7200,7 +7271,7 @@
         <v>234</v>
       </c>
       <c r="E77" s="94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F77" s="94" t="s">
         <v>173</v>
@@ -7224,16 +7295,16 @@
         <v>234</v>
       </c>
       <c r="M77" s="94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N77" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O77" s="94" t="s">
         <v>171</v>
       </c>
       <c r="P77" s="94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q77" s="94" t="s">
         <v>167</v>
@@ -7248,43 +7319,43 @@
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
       <c r="D78" s="93" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="E78" s="93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F78" s="93"/>
       <c r="G78" s="93" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="H78" s="93" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="I78" s="93"/>
       <c r="J78" s="93" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="K78" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L78" s="93" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="M78" s="93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N78" s="93" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="O78" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="P78" s="93" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="Q78" s="93"/>
       <c r="R78" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="S78" s="58"/>
       <c r="V78" s="69"/>
@@ -7314,43 +7385,43 @@
       <c r="B80" s="65"/>
       <c r="C80" s="52"/>
       <c r="D80" s="88" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E80" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="F80" s="88" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="G80" s="88" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="H80" s="88" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="I80" s="88"/>
       <c r="J80" s="88" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="K80" s="88" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="L80" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M80" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="N80" s="88"/>
       <c r="O80" s="88" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="P80" s="88"/>
       <c r="Q80" s="88" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="R80" s="88" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="S80" s="53"/>
       <c r="V80" s="69"/>
@@ -7371,10 +7442,10 @@
         <v>234</v>
       </c>
       <c r="G81" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="H81" s="94" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="H81" s="101" t="s">
+        <v>397</v>
       </c>
       <c r="I81" s="94" t="s">
         <v>167</v>
@@ -7386,7 +7457,7 @@
         <v>226</v>
       </c>
       <c r="L81" s="94" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M81" s="94" t="s">
         <v>215</v>
@@ -7413,43 +7484,43 @@
       <c r="B82" s="67"/>
       <c r="C82" s="52"/>
       <c r="D82" s="93" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="E82" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F82" s="93" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="G82" s="93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H82" s="93" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="I82" s="93"/>
       <c r="J82" s="93" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="K82" s="93" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="L82" s="93" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M82" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="N82" s="93"/>
       <c r="O82" s="93" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="P82" s="93"/>
       <c r="Q82" s="93" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="R82" s="93" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="S82" s="58"/>
       <c r="V82" s="69"/>
@@ -7480,42 +7551,42 @@
       <c r="C84" s="52"/>
       <c r="D84" s="88"/>
       <c r="E84" s="88" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="F84" s="88" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="G84" s="88"/>
       <c r="H84" s="88" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="I84" s="88" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J84" s="88"/>
       <c r="K84" s="88" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="L84" s="88" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="M84" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="N84" s="88" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="O84" s="88" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="P84" s="88" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="Q84" s="88" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="R84" s="88" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="S84" s="53"/>
       <c r="V84" s="69"/>
@@ -7562,14 +7633,14 @@
       <c r="O85" s="94" t="s">
         <v>214</v>
       </c>
-      <c r="P85" s="94" t="s">
-        <v>257</v>
+      <c r="P85" s="101" t="s">
+        <v>398</v>
       </c>
       <c r="Q85" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="R85" s="94" t="s">
-        <v>258</v>
+      <c r="R85" s="101" t="s">
+        <v>399</v>
       </c>
       <c r="S85" s="54"/>
       <c r="V85" s="69"/>
@@ -7579,42 +7650,42 @@
       <c r="C86" s="52"/>
       <c r="D86" s="93"/>
       <c r="E86" s="93" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F86" s="93" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="G86" s="93"/>
       <c r="H86" s="93" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="I86" s="93" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="J86" s="93"/>
       <c r="K86" s="93" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="L86" s="93" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="M86" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="N86" s="93" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="O86" s="93" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="P86" s="93" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q86" s="93" t="s">
         <v>377</v>
       </c>
-      <c r="Q86" s="93" t="s">
-        <v>389</v>
-      </c>
       <c r="R86" s="93" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="S86" s="58"/>
       <c r="V86" s="69"/>
@@ -7645,44 +7716,44 @@
       <c r="C88" s="52"/>
       <c r="D88" s="88"/>
       <c r="E88" s="88" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="F88" s="88" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="G88" s="88" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="H88" s="88" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="I88" s="88" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="J88" s="88" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K88" s="88"/>
       <c r="L88" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="M88" s="88" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="N88" s="88" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O88" s="88" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="P88" s="88" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="Q88" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="R88" s="88" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="S88" s="53"/>
       <c r="V88" s="69"/>
@@ -7703,7 +7774,7 @@
         <v>232</v>
       </c>
       <c r="G89" s="94" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H89" s="94" t="s">
         <v>226</v>
@@ -7727,10 +7798,10 @@
         <v>208</v>
       </c>
       <c r="O89" s="94" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P89" s="94" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q89" s="94" t="s">
         <v>233</v>
@@ -7746,44 +7817,44 @@
       <c r="C90" s="52"/>
       <c r="D90" s="93"/>
       <c r="E90" s="93" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="F90" s="93" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="G90" s="93" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="H90" s="93" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="I90" s="93" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="J90" s="93" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K90" s="93"/>
       <c r="L90" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="M90" s="93" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="N90" s="93" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O90" s="93" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="P90" s="93" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="Q90" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="R90" s="93" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="S90" s="58"/>
       <c r="V90" s="69"/>
@@ -7813,7 +7884,7 @@
       <c r="B92" s="65"/>
       <c r="C92" s="52"/>
       <c r="D92" s="88" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="E92" s="88"/>
       <c r="F92" s="88"/>
@@ -7839,7 +7910,7 @@
       </c>
       <c r="C93" s="52"/>
       <c r="D93" s="94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E93" s="94" t="s">
         <v>173</v>
@@ -7864,7 +7935,7 @@
       <c r="B94" s="67"/>
       <c r="C94" s="52"/>
       <c r="D94" s="93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E94" s="93"/>
       <c r="F94" s="93"/>
@@ -7995,43 +8066,43 @@
       <c r="B100" s="65"/>
       <c r="C100" s="52"/>
       <c r="D100" s="88" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E100" s="88" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="F100" s="88"/>
       <c r="G100" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="H100" s="88" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="I100" s="88" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="J100" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="K100" s="88" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="L100" s="88"/>
       <c r="M100" s="88"/>
       <c r="N100" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="O100" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="P100" s="88" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="Q100" s="88" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="R100" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="S100" s="53"/>
       <c r="V100" s="69"/>
@@ -8058,19 +8129,19 @@
         <v>227</v>
       </c>
       <c r="I101" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J101" s="94" t="s">
         <v>171</v>
       </c>
       <c r="K101" s="94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L101" s="94" t="s">
         <v>172</v>
       </c>
       <c r="M101" s="94" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="N101" s="94" t="s">
         <v>215</v>
@@ -8079,10 +8150,10 @@
         <v>171</v>
       </c>
       <c r="P101" s="94" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q101" s="94" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R101" s="94" t="s">
         <v>233</v>
@@ -8094,43 +8165,43 @@
       <c r="B102" s="67"/>
       <c r="C102" s="52"/>
       <c r="D102" s="93" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="E102" s="93" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="F102" s="93"/>
       <c r="G102" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="H102" s="93" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="I102" s="93" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="J102" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="K102" s="93" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="L102" s="93"/>
       <c r="M102" s="93"/>
       <c r="N102" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="O102" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="P102" s="93" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="Q102" s="93" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="R102" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="S102" s="58"/>
       <c r="V102" s="69"/>
@@ -8160,10 +8231,10 @@
       <c r="B104" s="65"/>
       <c r="C104" s="52"/>
       <c r="D104" s="88" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="E104" s="88" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="F104" s="88"/>
       <c r="G104" s="88"/>
@@ -8191,13 +8262,13 @@
         <v>234</v>
       </c>
       <c r="E105" s="94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F105" s="94" t="s">
         <v>173</v>
       </c>
       <c r="G105" s="94" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H105" s="94"/>
       <c r="I105" s="94"/>
@@ -8217,10 +8288,10 @@
       <c r="B106" s="67"/>
       <c r="C106" s="52"/>
       <c r="D106" s="93" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="E106" s="93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F106" s="93"/>
       <c r="G106" s="93"/>
@@ -8350,45 +8421,45 @@
       <c r="B112" s="65"/>
       <c r="C112" s="52"/>
       <c r="D112" s="88" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E112" s="88" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="F112" s="88"/>
       <c r="G112" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="H112" s="88" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="I112" s="88" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="J112" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="K112" s="88" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="L112" s="88"/>
       <c r="M112" s="88" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="N112" s="88" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="O112" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="P112" s="88" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="Q112" s="88" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="R112" s="88" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="S112" s="53"/>
       <c r="V112" s="69"/>
@@ -8415,13 +8486,13 @@
         <v>168</v>
       </c>
       <c r="I113" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J113" s="94" t="s">
         <v>171</v>
       </c>
       <c r="K113" s="94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L113" s="94" t="s">
         <v>167</v>
@@ -8439,10 +8510,10 @@
         <v>234</v>
       </c>
       <c r="Q113" s="94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R113" s="94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S113" s="54"/>
       <c r="V113" s="69"/>
@@ -8451,45 +8522,45 @@
       <c r="B114" s="67"/>
       <c r="C114" s="52"/>
       <c r="D114" s="93" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="E114" s="93" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="F114" s="93"/>
       <c r="G114" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="H114" s="93" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="I114" s="93" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="J114" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="K114" s="93" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="L114" s="93"/>
       <c r="M114" s="93" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="N114" s="93" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="O114" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P114" s="93" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="Q114" s="93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="R114" s="93" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="S114" s="58"/>
       <c r="V114" s="69"/>
@@ -8520,46 +8591,46 @@
       <c r="C116" s="52"/>
       <c r="D116" s="88"/>
       <c r="E116" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="F116" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="G116" s="88" t="s">
+        <v>323</v>
+      </c>
+      <c r="H116" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="I116" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="J116" s="88" t="s">
+        <v>268</v>
+      </c>
+      <c r="K116" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="L116" s="88" t="s">
+        <v>271</v>
+      </c>
+      <c r="M116" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="N116" s="88" t="s">
+        <v>383</v>
+      </c>
+      <c r="O116" s="88" t="s">
+        <v>315</v>
+      </c>
+      <c r="P116" s="88" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q116" s="88" t="s">
         <v>316</v>
       </c>
-      <c r="F116" s="88" t="s">
-        <v>318</v>
-      </c>
-      <c r="G116" s="88" t="s">
-        <v>370</v>
-      </c>
-      <c r="H116" s="88" t="s">
-        <v>310</v>
-      </c>
-      <c r="I116" s="88" t="s">
-        <v>386</v>
-      </c>
-      <c r="J116" s="88" t="s">
-        <v>280</v>
-      </c>
-      <c r="K116" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="L116" s="88" t="s">
-        <v>284</v>
-      </c>
-      <c r="M116" s="88" t="s">
-        <v>300</v>
-      </c>
-      <c r="N116" s="88" t="s">
-        <v>400</v>
-      </c>
-      <c r="O116" s="88" t="s">
-        <v>358</v>
-      </c>
-      <c r="P116" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q116" s="88" t="s">
-        <v>360</v>
-      </c>
       <c r="R116" s="88" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="S116" s="53"/>
       <c r="V116" s="69"/>
@@ -8580,7 +8651,7 @@
         <v>229</v>
       </c>
       <c r="G117" s="101" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H117" s="94" t="s">
         <v>227</v>
@@ -8601,19 +8672,19 @@
         <v>171</v>
       </c>
       <c r="N117" s="94" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="O117" s="94" t="s">
         <v>233</v>
       </c>
       <c r="P117" s="94" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q117" s="94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R117" s="94" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="S117" s="54"/>
       <c r="V117" s="69"/>
@@ -8623,46 +8694,46 @@
       <c r="C118" s="52"/>
       <c r="D118" s="93"/>
       <c r="E118" s="93" t="s">
+        <v>356</v>
+      </c>
+      <c r="F118" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="G118" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="H118" s="93" t="s">
+        <v>354</v>
+      </c>
+      <c r="I118" s="93" t="s">
+        <v>334</v>
+      </c>
+      <c r="J118" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="K118" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="L118" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="M118" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="N118" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="O118" s="93" t="s">
+        <v>367</v>
+      </c>
+      <c r="P118" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q118" s="93" t="s">
         <v>317</v>
       </c>
-      <c r="F118" s="93" t="s">
-        <v>319</v>
-      </c>
-      <c r="G118" s="93" t="s">
-        <v>371</v>
-      </c>
-      <c r="H118" s="93" t="s">
-        <v>311</v>
-      </c>
-      <c r="I118" s="93" t="s">
-        <v>387</v>
-      </c>
-      <c r="J118" s="93" t="s">
-        <v>281</v>
-      </c>
-      <c r="K118" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="L118" s="93" t="s">
-        <v>285</v>
-      </c>
-      <c r="M118" s="93" t="s">
-        <v>301</v>
-      </c>
-      <c r="N118" s="93" t="s">
-        <v>401</v>
-      </c>
-      <c r="O118" s="93" t="s">
-        <v>359</v>
-      </c>
-      <c r="P118" s="93" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q118" s="93" t="s">
-        <v>361</v>
-      </c>
       <c r="R118" s="93" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="S118" s="58"/>
       <c r="V118" s="69"/>
@@ -8692,45 +8763,45 @@
       <c r="B120" s="65"/>
       <c r="C120" s="52"/>
       <c r="D120" s="88" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="E120" s="88"/>
       <c r="F120" s="88" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G120" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="H120" s="88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="I120" s="88" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="J120" s="88" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="K120" s="88" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="L120" s="88" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="M120" s="88" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="N120" s="88"/>
       <c r="O120" s="88" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="P120" s="88" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="Q120" s="88" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="R120" s="88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="S120" s="53"/>
       <c r="V120" s="69"/>
@@ -8769,7 +8840,7 @@
         <v>192</v>
       </c>
       <c r="M121" s="94" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N121" s="94" t="s">
         <v>167</v>
@@ -8778,7 +8849,7 @@
         <v>217</v>
       </c>
       <c r="P121" s="94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q121" s="94" t="s">
         <v>184</v>
@@ -8793,45 +8864,45 @@
       <c r="B122" s="67"/>
       <c r="C122" s="52"/>
       <c r="D122" s="93" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="E122" s="93"/>
       <c r="F122" s="93" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="G122" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="H122" s="93" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I122" s="93" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="J122" s="93" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="K122" s="93" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="L122" s="93" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="M122" s="93" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="N122" s="93"/>
       <c r="O122" s="93" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="P122" s="93" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="Q122" s="93" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="R122" s="93" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="S122" s="58"/>
       <c r="V122" s="69"/>
@@ -8861,26 +8932,26 @@
       <c r="B124" s="65"/>
       <c r="C124" s="52"/>
       <c r="D124" s="88" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E124" s="88"/>
       <c r="F124" s="88" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G124" s="88" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H124" s="88" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="I124" s="88" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="J124" s="88" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="K124" s="88" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="L124" s="88"/>
       <c r="M124" s="88"/>
@@ -8908,19 +8979,19 @@
         <v>171</v>
       </c>
       <c r="G125" s="94" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H125" s="94" t="s">
         <v>233</v>
       </c>
       <c r="I125" s="94" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J125" s="94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K125" s="94" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L125" s="94" t="s">
         <v>173</v>
@@ -8940,26 +9011,26 @@
       <c r="B126" s="67"/>
       <c r="C126" s="52"/>
       <c r="D126" s="93" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E126" s="93"/>
       <c r="F126" s="93" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="G126" s="93" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="H126" s="93" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I126" s="93" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="J126" s="93" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="K126" s="93" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="L126" s="93"/>
       <c r="M126" s="93"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經009。一相無相分第九.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經009。一相無相分第九.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AB4D19-8C44-4218-956A-42E1E482C06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2FC3AF-A8D0-4084-B3C9-29A330FBBE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -1897,61 +1897,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄢˊ</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄥˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄨㄧ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4184,9 +4186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P81" sqref="P81"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -4452,7 +4452,7 @@
         <v>278</v>
       </c>
       <c r="P8" s="88" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="Q8" s="88" t="s">
         <v>280</v>
@@ -4552,7 +4552,7 @@
         <v>279</v>
       </c>
       <c r="P10" s="93" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="Q10" s="93" t="s">
         <v>281</v>
@@ -4609,7 +4609,7 @@
         <v>278</v>
       </c>
       <c r="K12" s="88" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="L12" s="88" t="s">
         <v>289</v>
@@ -4708,13 +4708,13 @@
         <v>279</v>
       </c>
       <c r="K14" s="93" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="L14" s="93" t="s">
         <v>290</v>
       </c>
       <c r="M14" s="93" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N14" s="93"/>
       <c r="O14" s="93"/>
@@ -4912,10 +4912,10 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="88" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="E20" s="88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F20" s="88" t="s">
         <v>299</v>
@@ -4924,7 +4924,7 @@
         <v>301</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I20" s="88"/>
       <c r="J20" s="88" t="s">
@@ -5011,10 +5011,10 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="93" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="E22" s="93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F22" s="93" t="s">
         <v>300</v>
@@ -5023,7 +5023,7 @@
         <v>359</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I22" s="93"/>
       <c r="J22" s="93" t="s">
@@ -5100,7 +5100,7 @@
         <v>282</v>
       </c>
       <c r="O24" s="88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P24" s="88" t="s">
         <v>268</v>
@@ -5109,7 +5109,7 @@
         <v>278</v>
       </c>
       <c r="R24" s="88" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -5195,7 +5195,7 @@
         <v>283</v>
       </c>
       <c r="O26" s="93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P26" s="93" t="s">
         <v>346</v>
@@ -5204,7 +5204,7 @@
         <v>279</v>
       </c>
       <c r="R26" s="93" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -5551,7 +5551,7 @@
         <v>290</v>
       </c>
       <c r="O34" s="93" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P34" s="93"/>
       <c r="Q34" s="93"/>
@@ -5752,13 +5752,13 @@
         <v>309</v>
       </c>
       <c r="G40" s="88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H40" s="88" t="s">
         <v>263</v>
       </c>
       <c r="I40" s="88" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J40" s="88" t="s">
         <v>311</v>
@@ -5774,7 +5774,7 @@
         <v>342</v>
       </c>
       <c r="O40" s="88" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P40" s="88" t="s">
         <v>311</v>
@@ -5853,13 +5853,13 @@
         <v>310</v>
       </c>
       <c r="G42" s="93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H42" s="93" t="s">
         <v>264</v>
       </c>
       <c r="I42" s="93" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J42" s="93" t="s">
         <v>312</v>
@@ -5875,7 +5875,7 @@
         <v>343</v>
       </c>
       <c r="O42" s="93" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P42" s="93" t="s">
         <v>312</v>
@@ -5912,7 +5912,7 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E44" s="88" t="s">
         <v>268</v>
@@ -6009,7 +6009,7 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E46" s="93" t="s">
         <v>346</v>
@@ -6337,7 +6337,7 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="93" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E54" s="93"/>
       <c r="F54" s="93"/>
@@ -6416,7 +6416,7 @@
         <v>309</v>
       </c>
       <c r="K56" s="88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L56" s="88" t="s">
         <v>299</v>
@@ -6517,7 +6517,7 @@
         <v>310</v>
       </c>
       <c r="K58" s="93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L58" s="93" t="s">
         <v>300</v>
@@ -6579,7 +6579,7 @@
         <v>298</v>
       </c>
       <c r="I60" s="88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J60" s="88" t="s">
         <v>315</v>
@@ -6676,7 +6676,7 @@
         <v>358</v>
       </c>
       <c r="I62" s="93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J62" s="93" t="s">
         <v>367</v>
@@ -6906,7 +6906,7 @@
         <v>320</v>
       </c>
       <c r="H68" s="88" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I68" s="88" t="s">
         <v>387</v>
@@ -7003,10 +7003,10 @@
         <v>368</v>
       </c>
       <c r="H70" s="93" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I70" s="93" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J70" s="93"/>
       <c r="K70" s="93"/>
@@ -7088,7 +7088,7 @@
         <v>307</v>
       </c>
       <c r="Q72" s="88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="R72" s="88" t="s">
         <v>315</v>
@@ -7187,7 +7187,7 @@
         <v>308</v>
       </c>
       <c r="Q74" s="93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R74" s="93" t="s">
         <v>367</v>
@@ -7397,7 +7397,7 @@
         <v>320</v>
       </c>
       <c r="H80" s="88" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I80" s="88"/>
       <c r="J80" s="88" t="s">
@@ -7496,7 +7496,7 @@
         <v>368</v>
       </c>
       <c r="H82" s="93" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I82" s="93"/>
       <c r="J82" s="93" t="s">
@@ -7580,13 +7580,13 @@
         <v>342</v>
       </c>
       <c r="P84" s="88" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q84" s="88" t="s">
         <v>335</v>
       </c>
       <c r="R84" s="88" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S84" s="53"/>
       <c r="V84" s="69"/>
@@ -7679,13 +7679,13 @@
         <v>343</v>
       </c>
       <c r="P86" s="93" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q86" s="93" t="s">
         <v>377</v>
       </c>
       <c r="R86" s="93" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="S86" s="58"/>
       <c r="V86" s="69"/>
@@ -8459,7 +8459,7 @@
         <v>320</v>
       </c>
       <c r="R112" s="88" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S112" s="53"/>
       <c r="V112" s="69"/>
@@ -8560,7 +8560,7 @@
         <v>368</v>
       </c>
       <c r="R114" s="93" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="S114" s="58"/>
       <c r="V114" s="69"/>
@@ -8795,7 +8795,7 @@
         <v>302</v>
       </c>
       <c r="P120" s="88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q120" s="88" t="s">
         <v>268</v>
@@ -8896,7 +8896,7 @@
         <v>303</v>
       </c>
       <c r="P122" s="93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q122" s="93" t="s">
         <v>346</v>
